--- a/data/game_data.xlsx
+++ b/data/game_data.xlsx
@@ -27,6 +27,7 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Cards_Stats!$A$1:$AR$38</definedName>
     <definedName name="스킬데이터">[1]스킬!$A$2:$T$33</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13117" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13132" uniqueCount="1827">
   <si>
     <t>id</t>
   </si>
@@ -5491,6 +5492,48 @@
   </si>
   <si>
     <t>스태미나 +10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>일반 잠재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠재력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5498,7 +5541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5528,6 +5571,36 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5549,22 +5622,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5572,6 +5665,465 @@
           <bgColor rgb="FFECFDFF"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Malgun Gothic"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7552,6 +8104,468 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:M33" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:M33"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="rank"/>
+    <tableColumn id="4" name="attr"/>
+    <tableColumn id="5" name="cls"/>
+    <tableColumn id="6" name="atk_t"/>
+    <tableColumn id="7" name="birth"/>
+    <tableColumn id="8" name="height"/>
+    <tableColumn id="9" name="origin"/>
+    <tableColumn id="10" name="affil"/>
+    <tableColumn id="11" name="cv_k"/>
+    <tableColumn id="12" name="cv_j"/>
+    <tableColumn id="13" name="desc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표12" displayName="표12" ref="A1:B29" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B29"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="kw"/>
+    <tableColumn id="2" name="cont"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표2" displayName="표2" ref="A1:S33" totalsRowShown="0" headerRowDxfId="16" dataDxfId="18">
+  <autoFilter ref="A1:S33"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="id" dataDxfId="37"/>
+    <tableColumn id="2" name="name" dataDxfId="36"/>
+    <tableColumn id="3" name="c_atk" dataDxfId="35"/>
+    <tableColumn id="4" name="c_hp" dataDxfId="34"/>
+    <tableColumn id="5" name="c_def" dataDxfId="33"/>
+    <tableColumn id="6" name="c_spd" dataDxfId="32"/>
+    <tableColumn id="7" name="crt_r" dataDxfId="31"/>
+    <tableColumn id="8" name="crt_d" dataDxfId="30"/>
+    <tableColumn id="9" name="eff_a" dataDxfId="29"/>
+    <tableColumn id="10" name="eff_r" dataDxfId="28"/>
+    <tableColumn id="11" name="c_acc" dataDxfId="27"/>
+    <tableColumn id="12" name="j_str" dataDxfId="26"/>
+    <tableColumn id="13" name="j_vit" dataDxfId="25"/>
+    <tableColumn id="14" name="j_end" dataDxfId="24"/>
+    <tableColumn id="15" name="j_foc" dataDxfId="23"/>
+    <tableColumn id="16" name="j_prt" dataDxfId="22"/>
+    <tableColumn id="17" name="pot_1" dataDxfId="21"/>
+    <tableColumn id="18" name="pot_2" dataDxfId="20"/>
+    <tableColumn id="19" name="pot_3" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:U33" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:U33"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="psv_nm"/>
+    <tableColumn id="4" name="psv_dsc"/>
+    <tableColumn id="5" name="bsc_nm"/>
+    <tableColumn id="6" name="bsc_tp"/>
+    <tableColumn id="7" name="bsc_tgt"/>
+    <tableColumn id="8" name="bsc_dsc"/>
+    <tableColumn id="9" name="bsc_nva"/>
+    <tableColumn id="10" name="spc_nm"/>
+    <tableColumn id="11" name="spc_tp"/>
+    <tableColumn id="12" name="spc_tgt"/>
+    <tableColumn id="13" name="spc_cl"/>
+    <tableColumn id="14" name="spc_dsc"/>
+    <tableColumn id="15" name="spc_nva"/>
+    <tableColumn id="16" name="ult_nm"/>
+    <tableColumn id="17" name="ult_tp"/>
+    <tableColumn id="18" name="ult_tgt"/>
+    <tableColumn id="19" name="ult_cl"/>
+    <tableColumn id="20" name="ult_dsc"/>
+    <tableColumn id="21" name="ult_nva"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:M97" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:M97"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="type"/>
+    <tableColumn id="3" name="skill_name"/>
+    <tableColumn id="4" name="1"/>
+    <tableColumn id="5" name="2"/>
+    <tableColumn id="6" name="3"/>
+    <tableColumn id="7" name="4"/>
+    <tableColumn id="8" name="5"/>
+    <tableColumn id="9" name="6"/>
+    <tableColumn id="10" name="7"/>
+    <tableColumn id="11" name="8"/>
+    <tableColumn id="12" name="9"/>
+    <tableColumn id="13" name="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표5" displayName="표5" ref="A1:F33" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="A1:F33"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id" dataDxfId="13"/>
+    <tableColumn id="2" name="psv_name" dataDxfId="12"/>
+    <tableColumn id="3" name="1" dataDxfId="11"/>
+    <tableColumn id="4" name="2" dataDxfId="10"/>
+    <tableColumn id="5" name="3" dataDxfId="9"/>
+    <tableColumn id="6" name="4" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="A1:AR38" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:AR38"/>
+  <tableColumns count="44">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="char"/>
+    <tableColumn id="4" name="rare"/>
+    <tableColumn id="5" name="img"/>
+    <tableColumn id="6" name="t_train"/>
+    <tableColumn id="7" name="t_sup_1"/>
+    <tableColumn id="8" name="t_sup_2"/>
+    <tableColumn id="9" name="u_pot_nm"/>
+    <tableColumn id="10" name="u_eff_nm"/>
+    <tableColumn id="11" name="u_eff_dsc"/>
+    <tableColumn id="12" name="jrn_1_t"/>
+    <tableColumn id="13" name="jrn_1_v35"/>
+    <tableColumn id="14" name="jrn_1_v50"/>
+    <tableColumn id="15" name="jrn_2_t"/>
+    <tableColumn id="16" name="jrn_2_v35"/>
+    <tableColumn id="17" name="jrn_2_v50"/>
+    <tableColumn id="18" name="trn_1_t"/>
+    <tableColumn id="19" name="trn_1_v35"/>
+    <tableColumn id="20" name="trn_1_v50"/>
+    <tableColumn id="21" name="trn_2_t"/>
+    <tableColumn id="22" name="trn_2_v35"/>
+    <tableColumn id="23" name="trn_2_v50"/>
+    <tableColumn id="24" name="sns_1_t"/>
+    <tableColumn id="25" name="sns_1_v35"/>
+    <tableColumn id="26" name="sns_1_v50"/>
+    <tableColumn id="27" name="sns_2_t"/>
+    <tableColumn id="28" name="sns_2_v35"/>
+    <tableColumn id="29" name="sns_2_v50"/>
+    <tableColumn id="30" name="jrn_3_t"/>
+    <tableColumn id="31" name="jrn_3_v35"/>
+    <tableColumn id="32" name="jrn_3_v50"/>
+    <tableColumn id="33" name="sup_1_t"/>
+    <tableColumn id="34" name="sup_1_v35"/>
+    <tableColumn id="35" name="sup_1_v50"/>
+    <tableColumn id="36" name="trn_3_t"/>
+    <tableColumn id="37" name="trn_3_v35"/>
+    <tableColumn id="38" name="trn_3_v50"/>
+    <tableColumn id="39" name="trn_4_t"/>
+    <tableColumn id="40" name="trn_4_v35"/>
+    <tableColumn id="41" name="trn_4_v50"/>
+    <tableColumn id="42" name="sns_3_t"/>
+    <tableColumn id="43" name="sns_3_v35"/>
+    <tableColumn id="44" name="sns_3_v50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표7" displayName="표7" ref="A1:HS38" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:HS38"/>
+  <tableColumns count="227">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="card_nm"/>
+    <tableColumn id="3" name="ev_1_nm"/>
+    <tableColumn id="4" name="ev_1_A_nm"/>
+    <tableColumn id="5" name="ev_1_A_FIX_0_T"/>
+    <tableColumn id="6" name="ev_1_A_FIX_0_V"/>
+    <tableColumn id="7" name="ev_1_A_FIX_1_T"/>
+    <tableColumn id="8" name="ev_1_A_FIX_1_V"/>
+    <tableColumn id="9" name="ev_1_A_FIX_2_T"/>
+    <tableColumn id="10" name="ev_1_A_FIX_2_V"/>
+    <tableColumn id="11" name="ev_1_A_FIX_3_T"/>
+    <tableColumn id="12" name="ev_1_A_FIX_3_V"/>
+    <tableColumn id="13" name="ev_1_A_FIX_4_T"/>
+    <tableColumn id="14" name="ev_1_A_FIX_4_V"/>
+    <tableColumn id="15" name="ev_1_A_FIX_5_T"/>
+    <tableColumn id="16" name="ev_1_A_FIX_5_V"/>
+    <tableColumn id="17" name="ev_1_A_Suc_0_T"/>
+    <tableColumn id="18" name="ev_1_A_Suc_0_V"/>
+    <tableColumn id="19" name="ev_1_A_Suc_1_T"/>
+    <tableColumn id="20" name="ev_1_A_Suc_1_V"/>
+    <tableColumn id="21" name="ev_1_A_Suc_2_T"/>
+    <tableColumn id="22" name="ev_1_A_Suc_2_V"/>
+    <tableColumn id="23" name="ev_1_A_Suc_3_T"/>
+    <tableColumn id="24" name="ev_1_A_Suc_3_V"/>
+    <tableColumn id="25" name="ev_1_A_Suc_4_T"/>
+    <tableColumn id="26" name="ev_1_A_Suc_4_V"/>
+    <tableColumn id="27" name="ev_1_A_Suc_5_T"/>
+    <tableColumn id="28" name="ev_1_A_Suc_5_V"/>
+    <tableColumn id="29" name="ev_1_A_Fail_0_T"/>
+    <tableColumn id="30" name="ev_1_A_Fail_0_V"/>
+    <tableColumn id="31" name="ev_1_A_Fail_1_T"/>
+    <tableColumn id="32" name="ev_1_A_Fail_1_V"/>
+    <tableColumn id="33" name="ev_1_A_Fail_2_T"/>
+    <tableColumn id="34" name="ev_1_A_Fail_2_V"/>
+    <tableColumn id="35" name="ev_1_A_Fail_3_T"/>
+    <tableColumn id="36" name="ev_1_A_Fail_3_V"/>
+    <tableColumn id="37" name="ev_1_A_Fail_4_T"/>
+    <tableColumn id="38" name="ev_1_A_Fail_4_V"/>
+    <tableColumn id="39" name="ev_1_A_Fail_5_T"/>
+    <tableColumn id="40" name="ev_1_A_Fail_5_V"/>
+    <tableColumn id="41" name="ev_1_B_nm"/>
+    <tableColumn id="42" name="ev_1_B_FIX_0_T"/>
+    <tableColumn id="43" name="ev_1_B_FIX_0_V"/>
+    <tableColumn id="44" name="ev_1_B_FIX_1_T"/>
+    <tableColumn id="45" name="ev_1_B_FIX_1_V"/>
+    <tableColumn id="46" name="ev_1_B_FIX_2_T"/>
+    <tableColumn id="47" name="ev_1_B_FIX_2_V"/>
+    <tableColumn id="48" name="ev_1_B_FIX_3_T"/>
+    <tableColumn id="49" name="ev_1_B_FIX_3_V"/>
+    <tableColumn id="50" name="ev_1_B_FIX_4_T"/>
+    <tableColumn id="51" name="ev_1_B_FIX_4_V"/>
+    <tableColumn id="52" name="ev_1_B_FIX_5_T"/>
+    <tableColumn id="53" name="ev_1_B_FIX_5_V"/>
+    <tableColumn id="54" name="ev_1_B_Suc_0_T"/>
+    <tableColumn id="55" name="ev_1_B_Suc_0_V"/>
+    <tableColumn id="56" name="ev_1_B_Suc_1_T"/>
+    <tableColumn id="57" name="ev_1_B_Suc_1_V"/>
+    <tableColumn id="58" name="ev_1_B_Suc_2_T"/>
+    <tableColumn id="59" name="ev_1_B_Suc_2_V"/>
+    <tableColumn id="60" name="ev_1_B_Suc_3_T"/>
+    <tableColumn id="61" name="ev_1_B_Suc_3_V"/>
+    <tableColumn id="62" name="ev_1_B_Suc_4_T"/>
+    <tableColumn id="63" name="ev_1_B_Suc_4_V"/>
+    <tableColumn id="64" name="ev_1_B_Suc_5_T"/>
+    <tableColumn id="65" name="ev_1_B_Suc_5_V"/>
+    <tableColumn id="66" name="ev_1_B_Fail_0_T"/>
+    <tableColumn id="67" name="ev_1_B_Fail_0_V"/>
+    <tableColumn id="68" name="ev_1_B_Fail_1_T"/>
+    <tableColumn id="69" name="ev_1_B_Fail_1_V"/>
+    <tableColumn id="70" name="ev_1_B_Fail_2_T"/>
+    <tableColumn id="71" name="ev_1_B_Fail_2_V"/>
+    <tableColumn id="72" name="ev_1_B_Fail_3_T"/>
+    <tableColumn id="73" name="ev_1_B_Fail_3_V"/>
+    <tableColumn id="74" name="ev_1_B_Fail_4_T"/>
+    <tableColumn id="75" name="ev_1_B_Fail_4_V"/>
+    <tableColumn id="76" name="ev_1_B_Fail_5_T"/>
+    <tableColumn id="77" name="ev_1_B_Fail_5_V"/>
+    <tableColumn id="78" name="ev_2_nm"/>
+    <tableColumn id="79" name="ev_2_A_nm"/>
+    <tableColumn id="80" name="ev_2_A_FIX_0_T"/>
+    <tableColumn id="81" name="ev_2_A_FIX_0_V"/>
+    <tableColumn id="82" name="ev_2_A_FIX_1_T"/>
+    <tableColumn id="83" name="ev_2_A_FIX_1_V"/>
+    <tableColumn id="84" name="ev_2_A_FIX_2_T"/>
+    <tableColumn id="85" name="ev_2_A_FIX_2_V"/>
+    <tableColumn id="86" name="ev_2_A_FIX_3_T"/>
+    <tableColumn id="87" name="ev_2_A_FIX_3_V"/>
+    <tableColumn id="88" name="ev_2_A_FIX_4_T"/>
+    <tableColumn id="89" name="ev_2_A_FIX_4_V"/>
+    <tableColumn id="90" name="ev_2_A_FIX_5_T"/>
+    <tableColumn id="91" name="ev_2_A_FIX_5_V"/>
+    <tableColumn id="92" name="ev_2_A_Suc_0_T"/>
+    <tableColumn id="93" name="ev_2_A_Suc_0_V"/>
+    <tableColumn id="94" name="ev_2_A_Suc_1_T"/>
+    <tableColumn id="95" name="ev_2_A_Suc_1_V"/>
+    <tableColumn id="96" name="ev_2_A_Suc_2_T"/>
+    <tableColumn id="97" name="ev_2_A_Suc_2_V"/>
+    <tableColumn id="98" name="ev_2_A_Suc_3_T"/>
+    <tableColumn id="99" name="ev_2_A_Suc_3_V"/>
+    <tableColumn id="100" name="ev_2_A_Suc_4_T"/>
+    <tableColumn id="101" name="ev_2_A_Suc_4_V"/>
+    <tableColumn id="102" name="ev_2_A_Suc_5_T"/>
+    <tableColumn id="103" name="ev_2_A_Suc_5_V"/>
+    <tableColumn id="104" name="ev_2_A_Fail_0_T"/>
+    <tableColumn id="105" name="ev_2_A_Fail_0_V"/>
+    <tableColumn id="106" name="ev_2_A_Fail_1_T"/>
+    <tableColumn id="107" name="ev_2_A_Fail_1_V"/>
+    <tableColumn id="108" name="ev_2_A_Fail_2_T"/>
+    <tableColumn id="109" name="ev_2_A_Fail_2_V"/>
+    <tableColumn id="110" name="ev_2_A_Fail_3_T"/>
+    <tableColumn id="111" name="ev_2_A_Fail_3_V"/>
+    <tableColumn id="112" name="ev_2_A_Fail_4_T"/>
+    <tableColumn id="113" name="ev_2_A_Fail_4_V"/>
+    <tableColumn id="114" name="ev_2_A_Fail_5_T"/>
+    <tableColumn id="115" name="ev_2_A_Fail_5_V"/>
+    <tableColumn id="116" name="ev_2_B_nm"/>
+    <tableColumn id="117" name="ev_2_B_FIX_0_T"/>
+    <tableColumn id="118" name="ev_2_B_FIX_0_V"/>
+    <tableColumn id="119" name="ev_2_B_FIX_1_T"/>
+    <tableColumn id="120" name="ev_2_B_FIX_1_V"/>
+    <tableColumn id="121" name="ev_2_B_FIX_2_T"/>
+    <tableColumn id="122" name="ev_2_B_FIX_2_V"/>
+    <tableColumn id="123" name="ev_2_B_FIX_3_T"/>
+    <tableColumn id="124" name="ev_2_B_FIX_3_V"/>
+    <tableColumn id="125" name="ev_2_B_FIX_4_T"/>
+    <tableColumn id="126" name="ev_2_B_FIX_4_V"/>
+    <tableColumn id="127" name="ev_2_B_FIX_5_T"/>
+    <tableColumn id="128" name="ev_2_B_FIX_5_V"/>
+    <tableColumn id="129" name="ev_2_B_Suc_0_T"/>
+    <tableColumn id="130" name="ev_2_B_Suc_0_V"/>
+    <tableColumn id="131" name="ev_2_B_Suc_1_T"/>
+    <tableColumn id="132" name="ev_2_B_Suc_1_V"/>
+    <tableColumn id="133" name="ev_2_B_Suc_2_T"/>
+    <tableColumn id="134" name="ev_2_B_Suc_2_V"/>
+    <tableColumn id="135" name="ev_2_B_Suc_3_T"/>
+    <tableColumn id="136" name="ev_2_B_Suc_3_V"/>
+    <tableColumn id="137" name="ev_2_B_Suc_4_T"/>
+    <tableColumn id="138" name="ev_2_B_Suc_4_V"/>
+    <tableColumn id="139" name="ev_2_B_Suc_5_T"/>
+    <tableColumn id="140" name="ev_2_B_Suc_5_V"/>
+    <tableColumn id="141" name="ev_2_B_Fail_0_T"/>
+    <tableColumn id="142" name="ev_2_B_Fail_0_V"/>
+    <tableColumn id="143" name="ev_2_B_Fail_1_T"/>
+    <tableColumn id="144" name="ev_2_B_Fail_1_V"/>
+    <tableColumn id="145" name="ev_2_B_Fail_2_T"/>
+    <tableColumn id="146" name="ev_2_B_Fail_2_V"/>
+    <tableColumn id="147" name="ev_2_B_Fail_3_T"/>
+    <tableColumn id="148" name="ev_2_B_Fail_3_V"/>
+    <tableColumn id="149" name="ev_2_B_Fail_4_T"/>
+    <tableColumn id="150" name="ev_2_B_Fail_4_V"/>
+    <tableColumn id="151" name="ev_2_B_Fail_5_T"/>
+    <tableColumn id="152" name="ev_2_B_Fail_5_V"/>
+    <tableColumn id="153" name="ev_3_nm"/>
+    <tableColumn id="154" name="ev_3_A_nm"/>
+    <tableColumn id="155" name="ev_3_A_FIX_0_T"/>
+    <tableColumn id="156" name="ev_3_A_FIX_0_V"/>
+    <tableColumn id="157" name="ev_3_A_FIX_1_T"/>
+    <tableColumn id="158" name="ev_3_A_FIX_1_V"/>
+    <tableColumn id="159" name="ev_3_A_FIX_2_T"/>
+    <tableColumn id="160" name="ev_3_A_FIX_2_V"/>
+    <tableColumn id="161" name="ev_3_A_FIX_3_T"/>
+    <tableColumn id="162" name="ev_3_A_FIX_3_V"/>
+    <tableColumn id="163" name="ev_3_A_FIX_4_T"/>
+    <tableColumn id="164" name="ev_3_A_FIX_4_V"/>
+    <tableColumn id="165" name="ev_3_A_FIX_5_T"/>
+    <tableColumn id="166" name="ev_3_A_FIX_5_V"/>
+    <tableColumn id="167" name="ev_3_A_Suc_0_T"/>
+    <tableColumn id="168" name="ev_3_A_Suc_0_V"/>
+    <tableColumn id="169" name="ev_3_A_Suc_1_T"/>
+    <tableColumn id="170" name="ev_3_A_Suc_1_V"/>
+    <tableColumn id="171" name="ev_3_A_Suc_2_T"/>
+    <tableColumn id="172" name="ev_3_A_Suc_2_V"/>
+    <tableColumn id="173" name="ev_3_A_Suc_3_T"/>
+    <tableColumn id="174" name="ev_3_A_Suc_3_V"/>
+    <tableColumn id="175" name="ev_3_A_Suc_4_T"/>
+    <tableColumn id="176" name="ev_3_A_Suc_4_V"/>
+    <tableColumn id="177" name="ev_3_A_Suc_5_T"/>
+    <tableColumn id="178" name="ev_3_A_Suc_5_V"/>
+    <tableColumn id="179" name="ev_3_A_Fail_0_T"/>
+    <tableColumn id="180" name="ev_3_A_Fail_0_V"/>
+    <tableColumn id="181" name="ev_3_A_Fail_1_T"/>
+    <tableColumn id="182" name="ev_3_A_Fail_1_V"/>
+    <tableColumn id="183" name="ev_3_A_Fail_2_T"/>
+    <tableColumn id="184" name="ev_3_A_Fail_2_V"/>
+    <tableColumn id="185" name="ev_3_A_Fail_3_T"/>
+    <tableColumn id="186" name="ev_3_A_Fail_3_V"/>
+    <tableColumn id="187" name="ev_3_A_Fail_4_T"/>
+    <tableColumn id="188" name="ev_3_A_Fail_4_V"/>
+    <tableColumn id="189" name="ev_3_A_Fail_5_T"/>
+    <tableColumn id="190" name="ev_3_A_Fail_5_V"/>
+    <tableColumn id="191" name="ev_3_B_nm"/>
+    <tableColumn id="192" name="ev_3_B_FIX_0_T"/>
+    <tableColumn id="193" name="ev_3_B_FIX_0_V"/>
+    <tableColumn id="194" name="ev_3_B_FIX_1_T"/>
+    <tableColumn id="195" name="ev_3_B_FIX_1_V"/>
+    <tableColumn id="196" name="ev_3_B_FIX_2_T"/>
+    <tableColumn id="197" name="ev_3_B_FIX_2_V"/>
+    <tableColumn id="198" name="ev_3_B_FIX_3_T"/>
+    <tableColumn id="199" name="ev_3_B_FIX_3_V"/>
+    <tableColumn id="200" name="ev_3_B_FIX_4_T"/>
+    <tableColumn id="201" name="ev_3_B_FIX_4_V"/>
+    <tableColumn id="202" name="ev_3_B_FIX_5_T"/>
+    <tableColumn id="203" name="ev_3_B_FIX_5_V"/>
+    <tableColumn id="204" name="ev_3_B_Suc_0_T"/>
+    <tableColumn id="205" name="ev_3_B_Suc_0_V"/>
+    <tableColumn id="206" name="ev_3_B_Suc_1_T"/>
+    <tableColumn id="207" name="ev_3_B_Suc_1_V"/>
+    <tableColumn id="208" name="ev_3_B_Suc_2_T"/>
+    <tableColumn id="209" name="ev_3_B_Suc_2_V"/>
+    <tableColumn id="210" name="ev_3_B_Suc_3_T"/>
+    <tableColumn id="211" name="ev_3_B_Suc_3_V"/>
+    <tableColumn id="212" name="ev_3_B_Suc_4_T"/>
+    <tableColumn id="213" name="ev_3_B_Suc_4_V"/>
+    <tableColumn id="214" name="ev_3_B_Suc_5_T"/>
+    <tableColumn id="215" name="ev_3_B_Suc_5_V"/>
+    <tableColumn id="216" name="ev_3_B_Fail_0_T"/>
+    <tableColumn id="217" name="ev_3_B_Fail_0_V"/>
+    <tableColumn id="218" name="ev_3_B_Fail_1_T"/>
+    <tableColumn id="219" name="ev_3_B_Fail_1_V"/>
+    <tableColumn id="220" name="ev_3_B_Fail_2_T"/>
+    <tableColumn id="221" name="ev_3_B_Fail_2_V"/>
+    <tableColumn id="222" name="ev_3_B_Fail_3_T"/>
+    <tableColumn id="223" name="ev_3_B_Fail_3_V"/>
+    <tableColumn id="224" name="ev_3_B_Fail_4_T"/>
+    <tableColumn id="225" name="ev_3_B_Fail_4_V"/>
+    <tableColumn id="226" name="ev_3_B_Fail_5_T"/>
+    <tableColumn id="227" name="ev_3_B_Fail_5_V"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표9" displayName="표9" ref="A1:Y40" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:Y40"/>
+  <tableColumns count="25">
+    <tableColumn id="1" name="grp"/>
+    <tableColumn id="2" name="cat"/>
+    <tableColumn id="3" name="name"/>
+    <tableColumn id="4" name="time"/>
+    <tableColumn id="5" name="cond"/>
+    <tableColumn id="6" name="ch_1_txt"/>
+    <tableColumn id="7" name="ch_1_cond"/>
+    <tableColumn id="8" name="ch_1_res"/>
+    <tableColumn id="9" name="ch_1_res_pos"/>
+    <tableColumn id="10" name="ch_1_res_neg"/>
+    <tableColumn id="11" name="ch_2_txt"/>
+    <tableColumn id="12" name="ch_2_cond"/>
+    <tableColumn id="13" name="ch_2_res"/>
+    <tableColumn id="14" name="ch_2_res_pos"/>
+    <tableColumn id="15" name="ch_2_res_neg"/>
+    <tableColumn id="16" name="ch_3_txt"/>
+    <tableColumn id="17" name="ch_3_cond"/>
+    <tableColumn id="18" name="ch_3_res"/>
+    <tableColumn id="19" name="ch_3_res_pos"/>
+    <tableColumn id="20" name="ch_3_res_neg"/>
+    <tableColumn id="21" name="ch_4_txt"/>
+    <tableColumn id="22" name="ch_4_cond"/>
+    <tableColumn id="23" name="ch_4_res"/>
+    <tableColumn id="24" name="ch_4_res_pos"/>
+    <tableColumn id="25" name="ch_4_res_neg"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="표11" displayName="표11" ref="A1:B47" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B47"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="nm"/>
+    <tableColumn id="2" name="dsc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7879,49 +8893,66 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9240,9 +10271,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:M33" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9250,15 +10282,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1591</v>
       </c>
     </row>
@@ -9489,9 +10527,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B29" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -9500,2015 +10538,2064 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2956</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>16512</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1168</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0.05</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>180</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>140</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>20</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>10</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>4634</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>22513</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1761</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.68</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>180</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>20</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>130</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>4436</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>22861</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1768</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>115</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.05</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>150</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>20</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>160</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>4578</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>22699</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1767</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>104</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.05</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>150</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>20</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>20</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>160</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>10</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>4648</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>22538</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1752</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>93</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.68</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>180</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>20</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>20</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>130</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>4164</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>25285</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>1768</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>107</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.05</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>150</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>20</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>20</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>160</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>10</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>4614</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>23004</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1751</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>90</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.05</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.5</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>150</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>20</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>20</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>160</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>10</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>2748</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>15775</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1158</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>94</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.5</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>180</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>20</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>20</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>130</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>10</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>4173</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>23064</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1756</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>90</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.05</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.75</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>150</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>20</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>20</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>160</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>10</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>2381</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>18145</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>1200</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>95</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.05</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.04</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>10</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>150</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>30</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>10</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>160</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>2421</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>17965</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>1233</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>95</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.05</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.08</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>10</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>180</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>150</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>10</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>10</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="3" t="s">
         <v>212</v>
       </c>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>4637</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>23626</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>1767</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>104</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.05</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>180</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>140</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>20</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>10</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>10</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>3680</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>26695</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1815</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>95</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0.05</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>0.5</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>0.12</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>10</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>180</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>30</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="3">
         <v>10</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>130</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>4662</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>23738</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>1763</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>107</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.05</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>0.5</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="3">
         <v>1</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>180</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>140</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>20</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="3">
         <v>10</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>10</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>4598</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>23746</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>1777</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>100</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.05</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>0.5</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>180</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>140</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>20</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="3">
         <v>10</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>10</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>2700</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>17836</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>1158</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>0.05</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>0.5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>1</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>180</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>20</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>140</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="3">
         <v>10</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>10</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>4144</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>23686</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>1772</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0.2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>0.5</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>180</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>140</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>20</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="3">
         <v>10</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>10</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>4568</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>22639</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>1762</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>100</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.68</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>1</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>180</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>20</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>20</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="3">
         <v>10</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>130</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>2411</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>17905</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>1228</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>95</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.05</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.08</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>10</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>180</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>150</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="3">
         <v>10</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>10</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="3" t="s">
         <v>212</v>
       </c>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>3710</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>24276</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>2096</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>95</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.05</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.5</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>0.12</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>10</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>180</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>30</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="3">
         <v>10</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>130</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>4634</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>22513</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>1761</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>90</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.5</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0.12</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>1</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>150</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>20</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>20</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>10</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>160</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>3687</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>27258</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>1883</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>98</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>0.05</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>0.5</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>0.08</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="3">
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>10</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <v>180</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>150</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="3">
         <v>10</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>10</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>3690</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>27117</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>1891</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>95</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>0.05</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>0.5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>0.08</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <v>1</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>10</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>180</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>150</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="3">
         <v>10</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>10</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>2720</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>15973</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>1168</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>100</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.26</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.5</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>1</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="3">
         <v>1</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>180</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>20</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>20</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="3">
         <v>130</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>10</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="3" t="s">
         <v>210</v>
       </c>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>2979</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>15715</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>1153</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>90</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.05</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>0.5</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>0.12</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>180</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>20</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>20</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="3">
         <v>10</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>130</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="Q26" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>4627</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>23566</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>1762</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>104</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>0.05</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>0.5</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>1</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>180</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="3">
         <v>140</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <v>20</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <v>10</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>10</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>4703</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>22573</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>1766</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>90</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>0.62</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>1</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>180</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>20</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <v>20</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="3">
         <v>130</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>10</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="Q28" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>4588</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>23686</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>1842</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>0.05</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>0.5</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>1</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="3">
         <v>1</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>180</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>20</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <v>140</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="3">
         <v>10</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>10</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R29" t="s">
+      <c r="R29" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>4203</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>22633</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>1771</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>90</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>0.75</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>1</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>0.12</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <v>1</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>150</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>20</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>20</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <v>10</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>160</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="R30" t="s">
+      <c r="R30" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="3" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>4588</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>22759</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>1772</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>104</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>0.05</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>0.5</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>150</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>20</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <v>20</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="3">
         <v>160</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>10</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R31" t="s">
+      <c r="R31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>3690</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>27117</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>1891</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>95</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>0.05</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>0.5</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>1</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0.08</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>1</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>10</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>180</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <v>150</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="3">
         <v>10</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="3">
         <v>10</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R32" t="s">
+      <c r="R32" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>3700</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>27177</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>1825</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>99</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>0.05</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>0.5</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>0.12</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>1</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>10</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>180</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <v>30</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="3">
         <v>10</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <v>130</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R33" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="3" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:S33" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="9" width="30.77734375" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="15" width="30.77734375" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.77734375" customWidth="1"/>
+    <col min="20" max="21" width="30.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -13550,12 +14637,17 @@
         <v>241</v>
       </c>
     </row>
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>1814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:U33" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -13564,62 +14656,57 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1702</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1704</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1703</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>10</v>
+      <c r="D1" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -17561,6 +18648,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -17568,15 +18658,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:F33"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="246.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17586,667 +18678,670 @@
       <c r="B1" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
+      <c r="C1" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1707</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1708</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>1714</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1715</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1716</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>1717</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>1719</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>1720</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>1724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>1727</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>1730</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>1736</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1738</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>1741</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>1744</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>1745</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>1747</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>1751</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>1753</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>1755</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>1758</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>1760</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>1763</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>1764</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>1770</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>1773</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>1775</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>1778</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>1779</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>1782</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>1787</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>1788</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>1789</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>1791</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>1793</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>1796</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>1803</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>1805</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>1806</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>1808</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>1810</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:B33">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -18255,142 +19350,175 @@
   <dimension ref="A1:AR38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>569</v>
       </c>
     </row>
@@ -18696,7 +19824,7 @@
         <v>634</v>
       </c>
       <c r="L5" t="s">
-        <v>635</v>
+        <v>1826</v>
       </c>
       <c r="M5" t="s">
         <v>636</v>
@@ -21519,700 +22647,935 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:AR38" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HS38"/>
+  <dimension ref="A1:HT38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="27.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="43" max="43" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="44" max="44" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="45" max="45" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="46" max="46" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="59" max="59" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="60" max="60" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="67" max="67" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="68" max="68" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="69" max="69" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="71" max="71" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="72" max="72" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="73" max="73" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="74" max="74" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="75" max="75" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="77" max="77" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="78" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="81" max="81" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="82" max="82" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="83" max="83" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="84" max="84" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="85" max="85" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="86" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="87" max="87" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="88" max="88" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="89" max="89" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="91" max="91" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="92" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="93" max="93" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="94" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="95" max="95" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="96" max="96" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="97" max="97" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="98" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="99" max="99" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="100" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="101" max="101" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="102" max="102" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="103" max="103" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="104" max="104" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="105" max="105" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="106" max="106" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="107" max="107" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="108" max="108" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="109" max="109" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="110" max="110" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="111" max="111" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="112" max="112" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="113" max="113" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="114" max="114" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="115" max="115" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="116" max="116" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="118" max="118" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="119" max="119" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="120" max="120" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="121" max="121" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="122" max="122" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="123" max="123" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="124" max="124" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="125" max="125" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="126" max="126" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="127" max="127" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="128" max="128" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="129" max="129" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="130" max="130" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="131" max="131" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="132" max="132" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="133" max="133" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="134" max="134" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="135" max="135" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="136" max="136" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="137" max="137" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="138" max="138" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="139" max="139" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="140" max="140" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="141" max="141" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="142" max="142" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="143" max="143" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="144" max="144" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="145" max="145" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="146" max="146" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="147" max="147" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="148" max="148" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="149" max="149" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="150" max="150" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="151" max="151" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="152" max="152" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="153" max="153" width="27.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="156" max="156" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="157" max="157" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="158" max="158" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="159" max="159" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="160" max="160" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="161" max="161" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="162" max="162" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="163" max="163" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="164" max="164" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="165" max="165" width="16.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="166" max="166" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="167" max="167" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="168" max="168" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="169" max="169" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="170" max="170" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="171" max="171" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="172" max="172" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="173" max="173" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="174" max="174" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="175" max="175" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="176" max="176" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="177" max="177" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="178" max="178" width="17.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="179" max="179" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="180" max="180" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="181" max="181" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="182" max="182" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="183" max="183" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="184" max="184" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="185" max="185" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="186" max="186" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="187" max="187" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="188" max="188" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="189" max="189" width="16.6640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="190" max="190" width="16.88671875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="191" max="191" width="30.77734375" customWidth="1" collapsed="1"/>
+    <col min="192" max="192" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="193" max="193" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="194" max="194" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="195" max="195" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="196" max="196" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="197" max="197" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="198" max="198" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="199" max="199" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="200" max="200" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="201" max="201" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="202" max="202" width="16.21875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="203" max="203" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="204" max="204" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="205" max="205" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="206" max="206" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="207" max="207" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="208" max="208" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="209" max="209" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="210" max="210" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="211" max="211" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="212" max="212" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="213" max="213" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="214" max="214" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="215" max="215" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="216" max="216" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="217" max="217" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="218" max="218" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="219" max="219" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="220" max="220" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="221" max="221" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="222" max="222" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="223" max="223" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="224" max="224" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="225" max="225" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="226" max="226" width="16.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="227" max="227" width="16.77734375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="228" max="228" width="8.88671875" collapsed="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:227">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>848</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>881</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>887</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>919</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EC1" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ED1" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EE1" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EF1" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EG1" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EH1" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EI1" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EK1" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EL1" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EM1" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EN1" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EO1" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EP1" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ER1" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ES1" s="4" t="s">
         <v>991</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="ET1" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EU1" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EV1" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EW1" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EX1" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EY1" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FA1" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FB1" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FC1" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FD1" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FE1" s="4" t="s">
         <v>1003</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FF1" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FG1" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FH1" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FI1" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FJ1" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FK1" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FL1" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FM1" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FN1" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FO1" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FP1" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FQ1" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FR1" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FS1" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FT1" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FU1" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FV1" s="4" t="s">
         <v>1020</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FW1" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FX1" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FY1" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="FZ1" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GA1" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GB1" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GC1" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GD1" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GE1" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GF1" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GG1" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GH1" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GI1" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GJ1" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GK1" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GL1" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GM1" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GN1" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GO1" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GP1" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GQ1" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="GR1" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="GS1" s="4" t="s">
         <v>1043</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="GT1" s="4" t="s">
         <v>1044</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GU1" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GV1" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="GW1" s="4" t="s">
         <v>1047</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="GX1" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="GY1" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="GZ1" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HA1" s="4" t="s">
         <v>1051</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HB1" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HC1" s="4" t="s">
         <v>1053</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HD1" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HE1" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HF1" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HG1" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HH1" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="HI1" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="HJ1" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="HK1" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="HL1" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="HM1" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="HN1" s="4" t="s">
         <v>1064</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="HO1" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="HP1" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="HQ1" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="HR1" s="4" t="s">
         <v>1068</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="HS1" s="4" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -30663,7 +32026,7 @@
         <v>620</v>
       </c>
       <c r="CF14" t="s">
-        <v>1102</v>
+        <v>1825</v>
       </c>
       <c r="CG14" t="s">
         <v>202</v>
@@ -47487,9 +48850,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:HS38" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -47497,8 +48860,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -47507,7 +48873,7 @@
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="160.88671875" bestFit="1" customWidth="1"/>
@@ -47524,86 +48890,86 @@
     <col min="19" max="19" width="48.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.21875" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -49684,9 +51050,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:Y34 A37:Y40 A35:L35 N35:Y35 A36:L36 N36:Y36" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -49694,15 +51060,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="138.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1540</v>
       </c>
     </row>
@@ -50077,8 +51449,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B47" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>